--- a/Pressure drop/fluid_components.xlsx
+++ b/Pressure drop/fluid_components.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\PSPL_Rocket_A\Pressure drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69599D89-DBD5-4B5C-8368-FF6253B1B778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3E4F2D-F35E-4D25-A09A-C7A1FBE8E81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>Angle [degrees]</t>
   </si>
@@ -71,6 +68,66 @@
   </si>
   <si>
     <t>Injector</t>
+  </si>
+  <si>
+    <t>Part Name</t>
+  </si>
+  <si>
+    <t>LOx Run Valve</t>
+  </si>
+  <si>
+    <t>LOx Tube 1</t>
+  </si>
+  <si>
+    <t>LOx Tube 2</t>
+  </si>
+  <si>
+    <t>LOx Tube to Injector</t>
+  </si>
+  <si>
+    <t>LOx Injector Orifices</t>
+  </si>
+  <si>
+    <t>Fuel Tube 1</t>
+  </si>
+  <si>
+    <t>Fuel Bend 1</t>
+  </si>
+  <si>
+    <t>Fuel Tube 2</t>
+  </si>
+  <si>
+    <t>Fuel Tube 3</t>
+  </si>
+  <si>
+    <t>Fuel Tube 4</t>
+  </si>
+  <si>
+    <t>Fuel Tube 5</t>
+  </si>
+  <si>
+    <t>Fuel Tube 6</t>
+  </si>
+  <si>
+    <t>Fuel Tube 7</t>
+  </si>
+  <si>
+    <t>Fuel Bend 2</t>
+  </si>
+  <si>
+    <t>Fuel Bend 3</t>
+  </si>
+  <si>
+    <t>Fuel Bend 4</t>
+  </si>
+  <si>
+    <t>Fuel Run Valve</t>
+  </si>
+  <si>
+    <t>Fuel Injector Orifices</t>
+  </si>
+  <si>
+    <t>Part Type</t>
   </si>
 </sst>
 </file>
@@ -91,7 +148,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +172,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -139,11 +202,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -188,6 +288,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -495,486 +604,547 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="21.1796875" customWidth="1"/>
-    <col min="7" max="7" width="23.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="32.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="21.1796875" customWidth="1"/>
+    <col min="8" max="8" width="23.1796875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="30.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="I2" s="9">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8">
+      <c r="M3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="T3" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U3" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I4" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="8">
+        <v>12</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="I5" s="9">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H2" s="9">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I2" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="9">
+      <c r="E6" s="14"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="9">
         <v>0.75</v>
       </c>
-      <c r="S3" s="9">
+      <c r="I6" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="T3" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H4" s="9">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I4" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="8">
-        <v>12</v>
-      </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="9">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I5" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
-        <v>1</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="9">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I6" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" s="8"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="9"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="J7" s="9"/>
+    </row>
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="15"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="11">
+      <c r="C10" s="12">
+        <v>90</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I10" s="11">
         <v>4.9000000000000002E-2</v>
       </c>
-      <c r="I9" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="J10" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I11" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12">
+        <v>90</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="12">
+        <v>3</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I12" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="E13" s="15"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12">
+        <v>90</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="12">
+        <v>3</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I14" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12">
+        <v>3</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I15" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12">
+        <v>90</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="12">
+        <v>3</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
+        <v>0.25</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="11">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12">
-        <v>90</v>
-      </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="12">
-        <v>3</v>
-      </c>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I10" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12">
-        <v>3</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="12">
-        <v>90</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="12">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I12" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11">
+      <c r="M18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="11">
         <v>0.75</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I13" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="12">
-        <v>90</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="12">
-        <v>3</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I14" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12">
-        <v>3</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I15" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="12">
-        <v>90</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="12">
-        <v>3</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I16" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11">
-        <v>0.25</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="11">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K18" s="10" t="s">
+      <c r="T18" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="U18" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11">
+        <v>0.33</v>
+      </c>
+      <c r="E19" s="15"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I19" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J19" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="11"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="12">
+        <v>12</v>
+      </c>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I20" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="11">
+        <v>0.75</v>
+      </c>
+      <c r="I21" s="11">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="J21" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="S18" s="11">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="T18" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11">
-        <v>0.33</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H19" s="11">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I19" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="12">
-        <v>12</v>
-      </c>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="G20" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H20" s="11">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I20" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11">
-        <v>0.5</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="H21" s="11">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="I21" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B22" s="11"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="15"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:J8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pressure drop/fluid_components.xlsx
+++ b/Pressure drop/fluid_components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\PSPL_Rocket_A\Pressure drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B3E4F2D-F35E-4D25-A09A-C7A1FBE8E81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95E6AC-68E1-4F0F-96CD-074FCE1F4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,9 +49,6 @@
     <t>Straight Tube</t>
   </si>
   <si>
-    <t>Part 2</t>
-  </si>
-  <si>
     <t>Venturi</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>Bend</t>
   </si>
   <si>
-    <t>Part 22</t>
-  </si>
-  <si>
     <t>Injector</t>
   </si>
   <si>
@@ -128,6 +122,12 @@
   </si>
   <si>
     <t>Part Type</t>
+  </si>
+  <si>
+    <t>LOx Venturi</t>
+  </si>
+  <si>
+    <t>Fuel Venturi</t>
   </si>
 </sst>
 </file>
@@ -604,10 +604,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,12 +623,12 @@
     <col min="10" max="10" width="30.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>0</v>
@@ -655,9 +655,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -679,31 +679,31 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L3" s="7" t="s">
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="9"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="9">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="9">
         <v>0.75</v>
       </c>
-      <c r="T3" s="9">
+      <c r="I3" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="U3" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
@@ -725,12 +725,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="14"/>
@@ -751,9 +751,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>8</v>
@@ -775,12 +775,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -791,9 +791,9 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -805,9 +805,9 @@
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>8</v>
@@ -829,12 +829,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="12">
         <v>90</v>
@@ -855,9 +855,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>8</v>
@@ -879,12 +879,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="12">
         <v>90</v>
@@ -905,9 +905,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>8</v>
@@ -929,12 +929,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="12">
         <v>90</v>
@@ -955,9 +955,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>8</v>
@@ -979,12 +979,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="12">
         <v>90</v>
@@ -1005,9 +1005,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>8</v>
@@ -1029,31 +1029,31 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L18" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="11">
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="11">
         <v>0.75</v>
       </c>
-      <c r="T18" s="11">
+      <c r="I18" s="11">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="U18" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>8</v>
@@ -1075,12 +1075,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="15"/>
@@ -1101,9 +1101,9 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>8</v>
@@ -1125,12 +1125,12 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>

--- a/Pressure drop/fluid_components.xlsx
+++ b/Pressure drop/fluid_components.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\GitHub\PSPL_Rocket_A\Pressure drop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC95E6AC-68E1-4F0F-96CD-074FCE1F4575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB713677-E2C8-479E-92E8-C6349F1D90DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,10 +604,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A8" sqref="A8:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,7 +623,7 @@
     <col min="10" max="10" width="30.7265625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -655,7 +655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
@@ -679,29 +679,29 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L3" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="9">
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="9">
         <v>0.75</v>
       </c>
-      <c r="I3" s="9">
+      <c r="T3" s="9">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J3" s="9">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U3" s="9">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>17</v>
       </c>
@@ -725,7 +725,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>15</v>
       </c>
@@ -751,7 +751,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -775,7 +775,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
         <v>11</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="I8" s="17"/>
       <c r="J8" s="18"/>
     </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>20</v>
       </c>
@@ -829,7 +829,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>21</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
@@ -879,7 +879,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>28</v>
       </c>
@@ -905,7 +905,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
@@ -929,7 +929,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>29</v>
       </c>
@@ -955,7 +955,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
@@ -979,7 +979,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>25</v>
       </c>
@@ -1029,29 +1029,29 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="M18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="11">
+      <c r="N18" s="11"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="11">
         <v>0.75</v>
       </c>
-      <c r="I18" s="11">
+      <c r="T18" s="11">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="J18" s="11">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="U18" s="11">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>31</v>
       </c>
@@ -1101,7 +1101,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>27</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>32</v>
       </c>
